--- a/results/origin_arousal/s03.xlsx
+++ b/results/origin_arousal/s03.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.7700000107288361</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -683,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.7824999988079071</v>
       </c>
       <c r="C2" t="n">
-        <v>993.4739990234375</v>
+        <v>999.90185546875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7176136320287531</v>
+        <v>0.7563636411320079</v>
       </c>
       <c r="E2" t="n">
-        <v>993.0021917169744</v>
+        <v>999.9291659268466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.7350000143051147</v>
       </c>
       <c r="C3" t="n">
-        <v>974.74169921875</v>
+        <v>982.2233581542969</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7003409158099781</v>
+        <v>0.7126136367971246</v>
       </c>
       <c r="E3" t="n">
-        <v>974.094277121804</v>
+        <v>981.9816672585227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C4" t="n">
-        <v>956.3694458007812</v>
+        <v>964.9809265136719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7369318225167014</v>
+        <v>0.6705681735819037</v>
       </c>
       <c r="E4" t="n">
-        <v>955.6202115145596</v>
+        <v>964.5301291725852</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.7150000035762787</v>
       </c>
       <c r="C5" t="n">
-        <v>938.288330078125</v>
+        <v>947.9151000976562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7153409015048634</v>
+        <v>0.7232954556291754</v>
       </c>
       <c r="E5" t="n">
-        <v>937.5044611150569</v>
+        <v>947.1671420010654</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6975000202655792</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C6" t="n">
-        <v>920.5597229003906</v>
+        <v>931.029296875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7576136318120089</v>
+        <v>0.7069318294525146</v>
       </c>
       <c r="E6" t="n">
-        <v>919.7319890802556</v>
+        <v>930.0872969193892</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.679999977350235</v>
+        <v>0.6774999797344208</v>
       </c>
       <c r="C7" t="n">
-        <v>903.1652526855469</v>
+        <v>914.2320251464844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7671590935100209</v>
+        <v>0.7426136352799155</v>
       </c>
       <c r="E7" t="n">
-        <v>902.317909934304</v>
+        <v>913.2459938742898</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C8" t="n">
-        <v>886.0829162597656</v>
+        <v>897.75927734375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7526136311617765</v>
+        <v>0.7388636307282881</v>
       </c>
       <c r="E8" t="n">
-        <v>885.236250443892</v>
+        <v>896.6649003462358</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6824999749660492</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C9" t="n">
-        <v>869.3276977539062</v>
+        <v>881.492919921875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.763181827285073</v>
+        <v>0.7530681870200417</v>
       </c>
       <c r="E9" t="n">
-        <v>868.4727505770596</v>
+        <v>880.3320811878551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.6749999821186066</v>
       </c>
       <c r="C10" t="n">
-        <v>852.9091796875</v>
+        <v>865.4286804199219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7690908963030035</v>
+        <v>0.7601136348464272</v>
       </c>
       <c r="E10" t="n">
-        <v>852.0278986150569</v>
+        <v>864.2752685546875</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7025000154972076</v>
+        <v>0.679999977350235</v>
       </c>
       <c r="C11" t="n">
-        <v>836.7559204101562</v>
+        <v>849.6256713867188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7951136393980547</v>
+        <v>0.7744318246841431</v>
       </c>
       <c r="E11" t="n">
-        <v>835.9017611416904</v>
+        <v>848.4571588689631</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C12" t="n">
-        <v>820.9220275878906</v>
+        <v>834.0892028808594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7929545478387312</v>
+        <v>0.7870454571463845</v>
       </c>
       <c r="E12" t="n">
-        <v>820.074629350142</v>
+        <v>832.9206321022727</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7250000238418579</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C13" t="n">
-        <v>805.3529052734375</v>
+        <v>818.7783508300781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7993181835521351</v>
+        <v>0.7971590919928118</v>
       </c>
       <c r="E13" t="n">
-        <v>804.535849831321</v>
+        <v>817.636396928267</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -887,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6749999821186066</v>
+        <v>0.6850000023841858</v>
       </c>
       <c r="C14" t="n">
-        <v>790.136474609375</v>
+        <v>803.7243041992188</v>
       </c>
       <c r="D14" t="n">
-        <v>0.795681817965074</v>
+        <v>0.7918181852860884</v>
       </c>
       <c r="E14" t="n">
-        <v>789.3023792613636</v>
+        <v>802.6210882013494</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="C15" t="n">
-        <v>775.1690063476562</v>
+        <v>788.9796752929688</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8125000054186041</v>
+        <v>0.803295455195687</v>
       </c>
       <c r="E15" t="n">
-        <v>774.3705999200994</v>
+        <v>787.8599909002131</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6875</v>
       </c>
       <c r="C16" t="n">
-        <v>760.5014953613281</v>
+        <v>774.45166015625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.803749989379536</v>
+        <v>0.8027272712100636</v>
       </c>
       <c r="E16" t="n">
-        <v>759.7019875266335</v>
+        <v>773.357832475142</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C17" t="n">
-        <v>746.0824890136719</v>
+        <v>760.1812133789062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8230681798674844</v>
+        <v>0.8122727274894714</v>
       </c>
       <c r="E17" t="n">
-        <v>745.3209173029119</v>
+        <v>759.1055908203125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C18" t="n">
-        <v>731.9673156738281</v>
+        <v>746.1788940429688</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8143181800842285</v>
+        <v>0.8073863658038053</v>
       </c>
       <c r="E18" t="n">
-        <v>731.204551003196</v>
+        <v>745.0986772017045</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C19" t="n">
-        <v>718.09619140625</v>
+        <v>732.3865356445312</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8270454569296404</v>
+        <v>0.81647728248076</v>
       </c>
       <c r="E19" t="n">
-        <v>717.3567393909801</v>
+        <v>731.3386396928267</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C20" t="n">
-        <v>704.5169677734375</v>
+        <v>718.8472595214844</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8327272751114585</v>
+        <v>0.8184090852737427</v>
       </c>
       <c r="E20" t="n">
-        <v>703.7790027965199</v>
+        <v>717.840165571733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7049999833106995</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C21" t="n">
-        <v>691.1736450195312</v>
+        <v>705.5730285644531</v>
       </c>
       <c r="D21" t="n">
-        <v>0.835340911691839</v>
+        <v>0.8231818188320507</v>
       </c>
       <c r="E21" t="n">
-        <v>690.4645718661221</v>
+        <v>704.5717107599431</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.7125000059604645</v>
       </c>
       <c r="C22" t="n">
-        <v>678.0906982421875</v>
+        <v>692.5226745605469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8373863642865961</v>
+        <v>0.8236363638531078</v>
       </c>
       <c r="E22" t="n">
-        <v>677.4023992365056</v>
+        <v>691.5496271306819</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1040,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="C23" t="n">
-        <v>665.2583923339844</v>
+        <v>679.70947265625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8410227244550531</v>
+        <v>0.824545448476618</v>
       </c>
       <c r="E23" t="n">
-        <v>664.5920465642756</v>
+        <v>678.7609641335227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7250000238418579</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C24" t="n">
-        <v>652.6799621582031</v>
+        <v>667.1375122070312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8435227274894714</v>
+        <v>0.8322727355090055</v>
       </c>
       <c r="E24" t="n">
-        <v>652.0317327325994</v>
+        <v>666.2034246271306</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7074999809265137</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C25" t="n">
-        <v>640.3499145507812</v>
+        <v>654.7762451171875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8363636352799155</v>
+        <v>0.8304545445875688</v>
       </c>
       <c r="E25" t="n">
-        <v>639.7116921164773</v>
+        <v>653.8756991299716</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7225000262260437</v>
+        <v>0.7275000214576721</v>
       </c>
       <c r="C26" t="n">
-        <v>628.2463989257812</v>
+        <v>642.6383056640625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8434090939435092</v>
+        <v>0.8277272744612261</v>
       </c>
       <c r="E26" t="n">
-        <v>627.623779296875</v>
+        <v>641.7762173739346</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.7150000035762787</v>
       </c>
       <c r="C27" t="n">
-        <v>616.3863525390625</v>
+        <v>630.748046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8453409075737</v>
+        <v>0.8338636322454973</v>
       </c>
       <c r="E27" t="n">
-        <v>615.7785866477273</v>
+        <v>629.8963900479404</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7225000262260437</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="C28" t="n">
-        <v>604.75</v>
+        <v>619.0606994628906</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8490909121253274</v>
+        <v>0.8389772772789001</v>
       </c>
       <c r="E28" t="n">
-        <v>604.1552234996449</v>
+        <v>618.2371604225852</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1142,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.7275000214576721</v>
       </c>
       <c r="C29" t="n">
-        <v>593.3408813476562</v>
+        <v>607.575439453125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8410227298736572</v>
+        <v>0.8338636376641013</v>
       </c>
       <c r="E29" t="n">
-        <v>592.7650479403409</v>
+        <v>606.7966918945312</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1159,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.7325000166893005</v>
       </c>
       <c r="C30" t="n">
-        <v>582.146728515625</v>
+        <v>596.3307189941406</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8456818244673989</v>
+        <v>0.8452272794463418</v>
       </c>
       <c r="E30" t="n">
-        <v>581.5920743075284</v>
+        <v>595.5658513849431</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="C31" t="n">
-        <v>571.1795654296875</v>
+        <v>585.2880554199219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8478409160267223</v>
+        <v>0.8422727205536582</v>
       </c>
       <c r="E31" t="n">
-        <v>570.639814897017</v>
+        <v>584.5453879616477</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="C32" t="n">
-        <v>560.423095703125</v>
+        <v>574.433349609375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8436363610354337</v>
+        <v>0.8406818183985624</v>
       </c>
       <c r="E32" t="n">
-        <v>559.8998302112926</v>
+        <v>573.728965065696</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7450000047683716</v>
       </c>
       <c r="C33" t="n">
-        <v>549.8777160644531</v>
+        <v>563.7959289550781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8467045480554755</v>
+        <v>0.8418181755326011</v>
       </c>
       <c r="E33" t="n">
-        <v>549.3665105646306</v>
+        <v>563.1160944158381</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7325000166893005</v>
       </c>
       <c r="C34" t="n">
-        <v>539.5379028320312</v>
+        <v>553.3557434082031</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8475000045516274</v>
+        <v>0.8370454582301053</v>
       </c>
       <c r="E34" t="n">
-        <v>539.0431241122159</v>
+        <v>552.7037686434659</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="C35" t="n">
-        <v>529.3982543945312</v>
+        <v>543.1219482421875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8467045534740795</v>
+        <v>0.844545451077548</v>
       </c>
       <c r="E35" t="n">
-        <v>528.9194113991477</v>
+        <v>542.4850352894176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.7524999976158142</v>
       </c>
       <c r="C36" t="n">
-        <v>519.45068359375</v>
+        <v>533.0684204101562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8455681746656244</v>
+        <v>0.8435227329080756</v>
       </c>
       <c r="E36" t="n">
-        <v>518.9984463778409</v>
+        <v>532.4632734818892</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7325000166893005</v>
       </c>
       <c r="C37" t="n">
-        <v>509.7088928222656</v>
+        <v>523.2065124511719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8453409075737</v>
+        <v>0.8410227244550531</v>
       </c>
       <c r="E37" t="n">
-        <v>509.2664434259588</v>
+        <v>522.6286177201705</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.737500011920929</v>
       </c>
       <c r="C38" t="n">
-        <v>500.1534881591797</v>
+        <v>513.5422058105469</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8452272794463418</v>
+        <v>0.8434090939435092</v>
       </c>
       <c r="E38" t="n">
-        <v>499.7272921475497</v>
+        <v>512.9789428710938</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.75</v>
       </c>
       <c r="C39" t="n">
-        <v>490.7874145507812</v>
+        <v>504.0546569824219</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8459090915593234</v>
+        <v>0.8419318199157715</v>
       </c>
       <c r="E39" t="n">
-        <v>490.3767117587003</v>
+        <v>503.5127480246804</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7250000238418579</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="C40" t="n">
-        <v>481.6063385009766</v>
+        <v>494.7394561767578</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8444318229501898</v>
+        <v>0.8403409177606757</v>
       </c>
       <c r="E40" t="n">
-        <v>481.2088401100852</v>
+        <v>494.2284185236151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1346,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.75</v>
       </c>
       <c r="C41" t="n">
-        <v>472.60693359375</v>
+        <v>485.6145629882812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8423863595182245</v>
+        <v>0.8461363694884561</v>
       </c>
       <c r="E41" t="n">
-        <v>472.221435546875</v>
+        <v>485.1168240633878</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.75</v>
       </c>
       <c r="C42" t="n">
-        <v>463.7839660644531</v>
+        <v>476.6531677246094</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8406818129799583</v>
+        <v>0.8437500054186041</v>
       </c>
       <c r="E42" t="n">
-        <v>463.4100702459162</v>
+        <v>476.1811939586293</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7025000154972076</v>
+        <v>0.75</v>
       </c>
       <c r="C43" t="n">
-        <v>455.1337432861328</v>
+        <v>467.8645629882812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8407954573631287</v>
+        <v>0.8436363664540377</v>
       </c>
       <c r="E43" t="n">
-        <v>454.7720808549361</v>
+        <v>467.4145147150213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.75</v>
       </c>
       <c r="C44" t="n">
-        <v>446.6515655517578</v>
+        <v>459.2415771484375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8422727259722623</v>
+        <v>0.8411363688382235</v>
       </c>
       <c r="E44" t="n">
-        <v>446.3040299849077</v>
+        <v>458.8163063742898</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.737500011920929</v>
+        <v>0.7524999976158142</v>
       </c>
       <c r="C45" t="n">
-        <v>438.3355255126953</v>
+        <v>450.7899932861328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8409090800718828</v>
+        <v>0.8453409129923041</v>
       </c>
       <c r="E45" t="n">
-        <v>438.0025218616832</v>
+        <v>450.3799688165838</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.7524999976158142</v>
       </c>
       <c r="C46" t="n">
-        <v>430.1826171875</v>
+        <v>442.4961090087891</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8363636406985197</v>
+        <v>0.8402272787961093</v>
       </c>
       <c r="E46" t="n">
-        <v>429.8657892400568</v>
+        <v>442.1092557040128</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7250000238418579</v>
+        <v>0.7524999976158142</v>
       </c>
       <c r="C47" t="n">
-        <v>422.1911010742188</v>
+        <v>434.3650054931641</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8375000032511625</v>
+        <v>0.8430681878870184</v>
       </c>
       <c r="E47" t="n">
-        <v>421.8872569691051</v>
+        <v>433.9945650967684</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1465,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7225000262260437</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C48" t="n">
-        <v>414.3637390136719</v>
+        <v>426.3922424316406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8361363681879911</v>
+        <v>0.838522732257843</v>
       </c>
       <c r="E48" t="n">
-        <v>414.0670110529119</v>
+        <v>426.0344071821733</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.75</v>
       </c>
       <c r="C49" t="n">
-        <v>406.6905212402344</v>
+        <v>418.5660858154297</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8360227292234247</v>
+        <v>0.8422727313908663</v>
       </c>
       <c r="E49" t="n">
-        <v>406.3970586603338</v>
+        <v>418.2255581942472</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="C50" t="n">
-        <v>399.1588287353516</v>
+        <v>410.8887329101562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8367045413364064</v>
+        <v>0.8396590893918817</v>
       </c>
       <c r="E50" t="n">
-        <v>398.8830288973722</v>
+        <v>410.5679376775568</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.7674999833106995</v>
       </c>
       <c r="C51" t="n">
-        <v>391.7799530029297</v>
+        <v>403.3639068603516</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8342045491391962</v>
+        <v>0.8411363471638073</v>
       </c>
       <c r="E51" t="n">
-        <v>391.5148454145952</v>
+        <v>403.0572454279119</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="C52" t="n">
-        <v>384.5483245849609</v>
+        <v>395.9823303222656</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8339772712100636</v>
+        <v>0.8410227298736572</v>
       </c>
       <c r="E52" t="n">
-        <v>384.2913041548296</v>
+        <v>395.6900717995384</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7249999940395355</v>
+        <v>0.7749999761581421</v>
       </c>
       <c r="C53" t="n">
-        <v>377.458740234375</v>
+        <v>388.7464904785156</v>
       </c>
       <c r="D53" t="n">
-        <v>0.831704546104778</v>
+        <v>0.8368181857195768</v>
       </c>
       <c r="E53" t="n">
-        <v>377.2121554287997</v>
+        <v>388.4674627130682</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.7724999785423279</v>
       </c>
       <c r="C54" t="n">
-        <v>370.5115203857422</v>
+        <v>381.6391754150391</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8323863636363636</v>
+        <v>0.8380681818181818</v>
       </c>
       <c r="E54" t="n">
-        <v>370.2687683105469</v>
+        <v>381.3790089000355</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7400000095367432</v>
+        <v>0.7724999785423279</v>
       </c>
       <c r="C55" t="n">
-        <v>363.6932220458984</v>
+        <v>374.6818084716797</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8326136361468922</v>
+        <v>0.8334090926430442</v>
       </c>
       <c r="E55" t="n">
-        <v>363.4648492986506</v>
+        <v>374.4290410822088</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7425000071525574</v>
+        <v>0.7724999785423279</v>
       </c>
       <c r="C56" t="n">
-        <v>357.0145263671875</v>
+        <v>367.8549652099609</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8325000080195341</v>
+        <v>0.834545455195687</v>
       </c>
       <c r="E56" t="n">
-        <v>356.7960537997159</v>
+        <v>367.6146739612926</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7724999785423279</v>
       </c>
       <c r="C57" t="n">
-        <v>350.4693450927734</v>
+        <v>361.1530456542969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8309090841900219</v>
+        <v>0.8342045437205922</v>
       </c>
       <c r="E57" t="n">
-        <v>350.2547968084162</v>
+        <v>360.9293018687855</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7400000095367432</v>
+        <v>0.7724999785423279</v>
       </c>
       <c r="C58" t="n">
-        <v>344.0523071289062</v>
+        <v>354.5877532958984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8315909179774198</v>
+        <v>0.8318181796507402</v>
       </c>
       <c r="E58" t="n">
-        <v>343.8456115722656</v>
+        <v>354.3747308904474</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C59" t="n">
-        <v>337.7609100341797</v>
+        <v>348.1517944335938</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8332954482598738</v>
+        <v>0.8301136331124739</v>
       </c>
       <c r="E59" t="n">
-        <v>337.5614707253196</v>
+        <v>347.9442665793679</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C60" t="n">
-        <v>331.5913543701172</v>
+        <v>341.8359527587891</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8327272805300626</v>
+        <v>0.8322727246717974</v>
       </c>
       <c r="E60" t="n">
-        <v>331.4006680575284</v>
+        <v>341.6389271129261</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1686,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7425000071525574</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C61" t="n">
-        <v>325.5436859130859</v>
+        <v>335.6396942138672</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8320454521612688</v>
+        <v>0.8330681865865533</v>
       </c>
       <c r="E61" t="n">
-        <v>325.3587202592329</v>
+        <v>335.45361328125</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C62" t="n">
-        <v>319.6159973144531</v>
+        <v>329.5630950927734</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8302272774956443</v>
+        <v>0.8306818170980974</v>
       </c>
       <c r="E62" t="n">
-        <v>319.4384321732954</v>
+        <v>329.3890907981179</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7475000023841858</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C63" t="n">
-        <v>313.8062744140625</v>
+        <v>323.6090850830078</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8330681757493452</v>
+        <v>0.8263636339794506</v>
       </c>
       <c r="E63" t="n">
-        <v>313.6351928710938</v>
+        <v>323.4421941583807</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1737,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7425000071525574</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C64" t="n">
-        <v>308.1138763427734</v>
+        <v>317.7684783935547</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8285227309573781</v>
+        <v>0.8267045508731495</v>
       </c>
       <c r="E64" t="n">
-        <v>307.9453763094816</v>
+        <v>317.6094082919034</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C65" t="n">
-        <v>302.5300903320312</v>
+        <v>312.0400695800781</v>
       </c>
       <c r="D65" t="n">
-        <v>0.82931818745353</v>
+        <v>0.8236363638531078</v>
       </c>
       <c r="E65" t="n">
-        <v>302.3682223233309</v>
+        <v>311.8895874023438</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7475000023841858</v>
+        <v>0.7700000107288361</v>
       </c>
       <c r="C66" t="n">
-        <v>297.0562438964844</v>
+        <v>306.4256286621094</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8273863575675271</v>
+        <v>0.8198863647200845</v>
       </c>
       <c r="E66" t="n">
-        <v>296.8990894664418</v>
+        <v>306.2813471013849</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C67" t="n">
-        <v>291.6894836425781</v>
+        <v>300.9173889160156</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8262500058520924</v>
+        <v>0.8255681991577148</v>
       </c>
       <c r="E67" t="n">
-        <v>291.5387767444957</v>
+        <v>300.7792247425426</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C68" t="n">
-        <v>286.4300231933594</v>
+        <v>295.5188598632812</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8249999989162792</v>
+        <v>0.8210227272727273</v>
       </c>
       <c r="E68" t="n">
-        <v>286.2830921519886</v>
+        <v>295.3848072398793</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C69" t="n">
-        <v>281.2742614746094</v>
+        <v>290.2231903076172</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8249999989162792</v>
+        <v>0.8228408965197477</v>
       </c>
       <c r="E69" t="n">
-        <v>281.1312339089134</v>
+        <v>290.0935807661577</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.757500022649765</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C70" t="n">
-        <v>276.2169647216797</v>
+        <v>285.0258026123047</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8231818134134467</v>
+        <v>0.8198863647200845</v>
       </c>
       <c r="E70" t="n">
-        <v>276.0811351429332</v>
+        <v>284.9064996892756</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7700000107288361</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C71" t="n">
-        <v>271.2613372802734</v>
+        <v>279.9326629638672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8228409073569558</v>
+        <v>0.8192045417698947</v>
       </c>
       <c r="E71" t="n">
-        <v>271.1299854625355</v>
+        <v>279.8188532049006</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,838 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.8741092636579573</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.8141592920353983</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9435897435897436</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04615384615384616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.04444444444444445</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04615384615384616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.04444444444444445</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1179487179487179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1179487179487179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1487179487179487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1487179487179487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1692307692307692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1692307692307692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3128205128205128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3128205128205128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3487179487179487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3487179487179487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3641025641025641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3641025641025641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.2888888888888889</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.2888888888888889</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.3897435897435897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3897435897435897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.4051282051282051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4051282051282051</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4256410256410256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.4256410256410256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4769230769230769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.4769230769230769</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5076923076923077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5076923076923077</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5128205128205128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5128205128205128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5282051282051282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5282051282051282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5641025641025641</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5641025641025641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.6564102564102564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.6564102564102564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.6820512820512821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6820512820512821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.6974358974358974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.6974358974358974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.7487179487179487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.7487179487179487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.7589743589743589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.7589743589743589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.7743589743589744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.7743589743589744</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.7794871794871795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.7794871794871795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.8256410256410256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.8444444444444444</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.8256410256410256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.8444444444444444</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.8564102564102564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.8564102564102564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9025641025641026</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9025641025641026</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9692307692307692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.9692307692307692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.9948717948717949</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.9948717948717949</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2744,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2758,7 +1905,873 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2256410256410256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2256410256410256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3282051282051282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3282051282051282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3641025641025641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3641025641025641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3897435897435897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3897435897435897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4051282051282051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4051282051282051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4974358974358974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4974358974358974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5282051282051282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5282051282051282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.558974358974359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.558974358974359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5743589743589743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5743589743589743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6717948717948717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6717948717948717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7128205128205128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7128205128205128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8102564102564103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8102564102564103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8256410256410256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8256410256410256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8358974358974359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8358974358974359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8512820512820513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8512820512820513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.882051282051282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.882051282051282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9025641025641026</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9025641025641026</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9179487179487179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9179487179487179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9435897435897436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9435897435897436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.958974358974359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.958974358974359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6137891737891739</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6137891737891737</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2769,7 +2782,7 @@
         <v>0.005128205128205128</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2777,21 +2790,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C5" t="n">
         <v>0.02222222222222222</v>
@@ -2799,21 +2812,21 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C7" t="n">
         <v>0.04444444444444445</v>
@@ -2821,417 +2834,417 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.1435897435897436</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.1435897435897436</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.2</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.2</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.2205128205128205</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.2205128205128205</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.241025641025641</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.241025641025641</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2512820512820513</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2512820512820513</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.3025641025641025</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.3025641025641025</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.3179487179487179</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.3179487179487179</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.3435897435897436</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.3435897435897436</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.4717948717948718</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.4717948717948718</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.3282051282051282</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.3282051282051282</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.4256410256410256</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.4256410256410256</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C45" t="n">
         <v>0.5777777777777777</v>
@@ -3239,175 +3252,175 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.441025641025641</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.5743589743589743</v>
+        <v>0.441025641025641</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.5743589743589743</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.5948717948717949</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.5948717948717949</v>
+        <v>0.4717948717948718</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.6102564102564103</v>
+        <v>0.4717948717948718</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.6102564102564103</v>
+        <v>0.4974358974358974</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4974358974358974</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.6358974358974359</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.6358974358974359</v>
+        <v>0.5948717948717949</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.6512820512820513</v>
+        <v>0.5948717948717949</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.6512820512820513</v>
+        <v>0.6102564102564103</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.6871794871794872</v>
+        <v>0.6102564102564103</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.6871794871794872</v>
+        <v>0.6358974358974359</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.7128205128205128</v>
+        <v>0.6358974358974359</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C61" t="n">
         <v>0.8</v>
@@ -3415,21 +3428,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.7128205128205128</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.717948717948718</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C63" t="n">
         <v>0.8222222222222222</v>
@@ -3437,21 +3450,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.717948717948718</v>
+        <v>0.6717948717948717</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.6717948717948717</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C65" t="n">
         <v>0.8444444444444444</v>
@@ -3459,21 +3472,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8444444444444444</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.8358974358974359</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C67" t="n">
         <v>0.8666666666666667</v>
@@ -3481,100 +3494,122 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.8358974358974359</v>
+        <v>0.7743589743589744</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.8512820512820513</v>
+        <v>0.7743589743589744</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.8512820512820513</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.882051282051282</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.882051282051282</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5457549857549857</v>
+        <v>0.6137891737891737</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
+        <v>0.9692307692307692</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6137891737891737</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.9692307692307692</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6137891737891737</v>
+      </c>
+      <c r="C77" t="n">
         <v>1</v>
       </c>
-      <c r="B76" t="n">
-        <v>0.5457549857549857</v>
-      </c>
-      <c r="C76" t="n">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6137891737891737</v>
+      </c>
+      <c r="C78" t="n">
         <v>1</v>
       </c>
     </row>
